--- a/PythonResources/Data/Consumption/Sympheny/post_1345_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1345_coo.xlsx
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>36.50141172319324</v>
+        <v>36.50141172319323</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>6.594743126165325</v>
+        <v>6.594743126165324</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>9.886077425851562</v>
+        <v>9.88607742585156</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>9.055953708843305</v>
+        <v>9.055953708843299</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>45.21206913428574</v>
+        <v>45.21206913428573</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>44.55998607326425</v>
+        <v>44.55998607326424</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>7.938239381596664</v>
+        <v>7.938239381596663</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>25.32649579062068</v>
+        <v>25.32649579062067</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>28.95427564269014</v>
+        <v>28.95427564269013</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>32.6979357834463</v>
+        <v>32.69793578344629</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>25.16756336635463</v>
+        <v>25.16756336635462</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>8.910062945797685</v>
+        <v>8.910062945797684</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>5.594315828590956</v>
+        <v>5.594315828590955</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>19.2116564902633</v>
+        <v>19.21165649026329</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>67.90807651029765</v>
+        <v>67.90807651029763</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>64.94747287774074</v>
+        <v>64.94747287774072</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>65.62300162185514</v>
+        <v>65.62300162185512</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>37.63002829307808</v>
+        <v>37.63002829307807</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>63.31096419785578</v>
+        <v>63.31096419785577</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>32.45351453720274</v>
+        <v>32.45351453720273</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>45.08223866415877</v>
+        <v>45.08223866415876</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>44.75341295878074</v>
+        <v>44.75341295878073</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>47.39017309361686</v>
+        <v>47.39017309361685</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>30.69362295004136</v>
+        <v>30.69362295004135</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>38.1446610369674</v>
+        <v>38.14466103696739</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>43.67315311027502</v>
+        <v>43.67315311027501</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>37.55119218367818</v>
+        <v>37.55119218367817</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>21.43460031850961</v>
+        <v>21.4346003185096</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>50.30242000479465</v>
+        <v>50.30242000479464</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>71.44368552070812</v>
+        <v>71.4436855207081</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>82.26357519704632</v>
+        <v>82.26357519704631</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -34095,7 +34095,7 @@
         <v>4219</v>
       </c>
       <c r="B4219">
-        <v>18.09423523405533</v>
+        <v>18.09423523405532</v>
       </c>
     </row>
     <row r="4220" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>40.6413332153234</v>
+        <v>40.64133321532339</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>14.43307459068234</v>
+        <v>14.43307459068233</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>47.57363556381886</v>
+        <v>47.57363556381885</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>10.22518992468661</v>
+        <v>10.2251899246866</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>42.51171258406011</v>
+        <v>42.5117125840601</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>38.33339878586531</v>
+        <v>38.3333987858653</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>24.9214716151907</v>
+        <v>24.92147161519069</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>48.68466787138402</v>
+        <v>48.68466787138401</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>45.80583105861363</v>
+        <v>45.80583105861362</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>79.92281681125816</v>
+        <v>79.92281681125814</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>79.17900251513566</v>
+        <v>79.17900251513565</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>82.96225655321497</v>
+        <v>82.96225655321496</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>25.87881747008185</v>
+        <v>25.87881747008184</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>33.26854509571994</v>
+        <v>33.26854509571993</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>32.29291160801632</v>
+        <v>32.29291160801631</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>33.04200118283472</v>
+        <v>33.04200118283471</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>9.923004376722892</v>
+        <v>9.92300437672289</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>17.61368665196232</v>
+        <v>17.61368665196231</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>35.80624721948853</v>
+        <v>35.80624721948852</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>46.09333374754041</v>
+        <v>46.0933337475404</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>47.16099154138369</v>
+        <v>47.16099154138368</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>36.07880328544358</v>
+        <v>36.07880328544357</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>37.04916149445129</v>
+        <v>37.04916149445128</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>49.85372824460413</v>
+        <v>49.85372824460412</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>53.73633336478963</v>
+        <v>53.73633336478962</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>68.87110794333883</v>
+        <v>68.87110794333881</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>57.63476432106285</v>
+        <v>57.63476432106284</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>53.45351981248143</v>
+        <v>53.45351981248142</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>60.85239125452576</v>
+        <v>60.85239125452575</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>61.38460826073476</v>
+        <v>61.38460826073475</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>6.24874345792174</v>
+        <v>6.248743457921739</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>72.58754178460335</v>
+        <v>72.58754178460333</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>79.57113156486454</v>
+        <v>79.57113156486453</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>54.43735928926757</v>
+        <v>54.43735928926756</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>74.68974034492118</v>
+        <v>74.68974034492116</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>79.28099123658981</v>
+        <v>79.2809912365898</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>79.07965143302947</v>
+        <v>79.07965143302945</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>35.26846186354496</v>
+        <v>35.26846186354495</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>6.933621168169438</v>
+        <v>6.933621168169437</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>4.880131014477124</v>
+        <v>4.880131014477123</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>26.1513735360369</v>
+        <v>26.15137353603689</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>55.36727369494002</v>
+        <v>55.36727369494001</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>23.57806328107096</v>
+        <v>23.57806328107095</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>20.98426736050259</v>
+        <v>20.98426736050258</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>12.0762852190794</v>
+        <v>12.07628521907939</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>25.73990179775637</v>
+        <v>25.73990179775636</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>30.60042635974705</v>
+        <v>30.60042635974704</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>12.99670412309922</v>
+        <v>12.99670412309921</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>31.29090172683318</v>
+        <v>31.29090172683317</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>18.87248537722053</v>
+        <v>18.87248537722052</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>31.8017245472199</v>
+        <v>31.80172454721989</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>32.49923361923391</v>
+        <v>32.4992336192339</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>60.27152445589897</v>
+        <v>60.27152445589896</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>28.77544369489899</v>
+        <v>28.77544369489898</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42727,7 +42727,7 @@
         <v>5298</v>
       </c>
       <c r="B5298">
-        <v>29.00776110724584</v>
+        <v>29.00776110724583</v>
       </c>
     </row>
     <row r="5299" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>60.19503291480836</v>
+        <v>60.19503291480835</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>64.88856559896981</v>
+        <v>64.88856559896979</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>32.80490671255769</v>
+        <v>32.80490671255768</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43463,7 +43463,7 @@
         <v>5390</v>
       </c>
       <c r="B5390">
-        <v>55.09940676560355</v>
+        <v>55.09940676560354</v>
       </c>
     </row>
     <row r="5391" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>36.68751183274319</v>
+        <v>36.68751183274318</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>52.54148274016733</v>
+        <v>52.54148274016732</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>53.95584357274698</v>
+        <v>53.95584357274697</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>7.761253781349077</v>
+        <v>7.761253781349076</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>8.599847251374651</v>
+        <v>8.59984725137465</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>9.362300865556008</v>
+        <v>9.362300865556003</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>8.277732872781966</v>
+        <v>8.277732872781964</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>45.22467118894818</v>
+        <v>45.22467118894817</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>32.11443134547156</v>
+        <v>32.11443134547155</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>39.93327358591759</v>
+        <v>39.93327358591758</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>7.401040167730418</v>
+        <v>7.401040167730417</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>61.5147318019004</v>
+        <v>61.51473180190039</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>69.65331454552596</v>
+        <v>69.65331454552594</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>33.48278002498138</v>
+        <v>33.48278002498137</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>25.23746080907536</v>
+        <v>25.23746080907535</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>7.633152430350203</v>
+        <v>7.633152430350202</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>5.817753188466366</v>
+        <v>5.817753188466365</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>9.315937027239782</v>
+        <v>9.31593702723978</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>3.845121334340717</v>
+        <v>3.845121334340716</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>8.720885590341787</v>
+        <v>8.720885590341785</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>9.810875397331062</v>
+        <v>9.81087539733106</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>14.12212621866265</v>
+        <v>14.12212621866264</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>17.58338310656474</v>
+        <v>17.58338310656473</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>6.650221473783917</v>
+        <v>6.650221473783916</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>13.05704744995959</v>
+        <v>13.05704744995958</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>14.7822980403512</v>
+        <v>14.78229804035119</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>2.510933015097262</v>
+        <v>2.510933015097261</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
